--- a/CorrelationofKidsandVotes.xlsx
+++ b/CorrelationofKidsandVotes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27820" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="100" windowWidth="27820" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4588,7 +4588,7 @@
   <dimension ref="A1:S276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="G261" sqref="G261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
